--- a/test_effort_estimation/14_テスト実行工数の見積もり.xlsx
+++ b/test_effort_estimation/14_テスト実行工数の見積もり.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hikaru.hattori/Documents/小町さんの手伝い案件/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hikaru.hattori/projects/test_engineer_course_exam/test_effort_estimation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9E475FF-3961-BB48-9A0F-445BD0C0108F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{339E02D4-03D3-A042-B855-A194986C4B33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-11920" yWindow="-20720" windowWidth="28800" windowHeight="15880" xr2:uid="{C5CA294F-A46A-BC40-BB05-3E7073DBB11F}"/>
+    <workbookView xWindow="-11920" yWindow="-18420" windowWidth="28800" windowHeight="15880" xr2:uid="{C5CA294F-A46A-BC40-BB05-3E7073DBB11F}"/>
   </bookViews>
   <sheets>
     <sheet name="テスト実行工数見積もり" sheetId="3" r:id="rId1"/>
@@ -3453,8 +3453,8 @@
   <cols>
     <col min="1" max="1" width="3.140625" style="16" customWidth="1"/>
     <col min="2" max="2" width="34.7109375" style="16" customWidth="1"/>
-    <col min="3" max="5" width="9" style="16" customWidth="1"/>
-    <col min="6" max="6" width="5.7109375" style="16" customWidth="1"/>
+    <col min="3" max="5" width="9.5703125" style="16" customWidth="1"/>
+    <col min="6" max="6" width="4" style="16" customWidth="1"/>
     <col min="7" max="16384" width="10.7109375" style="16"/>
   </cols>
   <sheetData>
